--- a/public/uploads/Importgrade.xlsx
+++ b/public/uploads/Importgrade.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="64">
   <si>
     <t>Alexander Ansel Hadipranoto</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>12HR-NS</t>
-  </si>
-  <si>
     <t>School Year</t>
   </si>
   <si>
@@ -215,6 +212,12 @@
   </si>
   <si>
     <t>S1Avg</t>
+  </si>
+  <si>
+    <t>Grade 12A</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:H726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +596,7 @@
     <col min="2" max="2" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
@@ -605,25 +608,25 @@
         <v>53</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,21 +636,20 @@
       <c r="B2" s="6">
         <v>20080301</v>
       </c>
-      <c r="C2" s="6" t="str">
-        <f>LEFT(E2,2)</f>
-        <v>12</v>
+      <c r="C2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6">
         <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
@@ -660,21 +662,20 @@
       <c r="B3" s="6">
         <v>20080301</v>
       </c>
-      <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C12" si="0">LEFT(E3,2)</f>
-        <v>12</v>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6">
         <v>76</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -687,21 +688,20 @@
       <c r="B4" s="6">
         <v>20080301</v>
       </c>
-      <c r="C4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6">
         <v>87</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
@@ -714,21 +714,20 @@
       <c r="B5" s="6">
         <v>20080301</v>
       </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6">
         <v>85</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -741,21 +740,20 @@
       <c r="B6" s="6">
         <v>20080301</v>
       </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6">
         <v>96</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -768,21 +766,20 @@
       <c r="B7" s="6">
         <v>20080301</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F7" s="6">
         <v>86</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -795,21 +792,20 @@
       <c r="B8" s="6">
         <v>20080301</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6">
         <v>81</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -822,21 +818,20 @@
       <c r="B9" s="6">
         <v>20080301</v>
       </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6">
         <v>80</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="10">
         <v>1</v>
@@ -849,21 +844,20 @@
       <c r="B10" s="6">
         <v>20080301</v>
       </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F10" s="6">
         <v>95</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -876,21 +870,20 @@
       <c r="B11" s="6">
         <v>20080301</v>
       </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6">
         <v>96</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="10">
         <v>1</v>
@@ -903,21 +896,20 @@
       <c r="B12" s="6">
         <v>20080301</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6">
         <v>92</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>

--- a/public/uploads/Importgrade.xlsx
+++ b/public/uploads/Importgrade.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:H726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,10 +6634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,7 +6651,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7026,8 +7026,9 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7051,8 +7052,9 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7076,8 +7078,9 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7101,8 +7104,9 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7126,8 +7130,9 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7151,8 +7156,9 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7176,8 +7182,9 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7201,8 +7208,9 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7226,8 +7234,9 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7251,8 +7260,9 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7276,8 +7286,9 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7301,8 +7312,9 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7326,8 +7338,9 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7351,8 +7364,9 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7376,8 +7390,9 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7401,8 +7416,9 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7426,8 +7442,9 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7451,8 +7468,9 @@
       <c r="H32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7476,8 +7494,9 @@
       <c r="H33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7501,8 +7520,9 @@
       <c r="H34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7526,8 +7546,9 @@
       <c r="H35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7551,8 +7572,9 @@
       <c r="H36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7576,8 +7598,9 @@
       <c r="H37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7601,8 +7624,9 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7626,8 +7650,9 @@
       <c r="H39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7651,8 +7676,9 @@
       <c r="H40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7676,8 +7702,9 @@
       <c r="H41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7701,8 +7728,9 @@
       <c r="H42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7726,8 +7754,9 @@
       <c r="H43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7751,8 +7780,9 @@
       <c r="H44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7776,8 +7806,9 @@
       <c r="H45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7801,8 +7832,9 @@
       <c r="H46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7826,8 +7858,9 @@
       <c r="H47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7851,8 +7884,9 @@
       <c r="H48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7876,8 +7910,9 @@
       <c r="H49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7901,8 +7936,9 @@
       <c r="H50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7926,8 +7962,9 @@
       <c r="H51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7951,8 +7988,9 @@
       <c r="H52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7976,8 +8014,9 @@
       <c r="H53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8001,8 +8040,9 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8026,8 +8066,9 @@
       <c r="H55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8051,8 +8092,9 @@
       <c r="H56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8076,8 +8118,9 @@
       <c r="H57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8101,8 +8144,9 @@
       <c r="H58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8126,8 +8170,9 @@
       <c r="H59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8151,8 +8196,9 @@
       <c r="H60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8176,8 +8222,9 @@
       <c r="H61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8201,8 +8248,9 @@
       <c r="H62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8226,8 +8274,9 @@
       <c r="H63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8251,8 +8300,9 @@
       <c r="H64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8276,8 +8326,9 @@
       <c r="H65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8301,8 +8352,9 @@
       <c r="H66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8326,8 +8378,9 @@
       <c r="H67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8351,8 +8404,9 @@
       <c r="H68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8376,8 +8430,9 @@
       <c r="H69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8401,8 +8456,9 @@
       <c r="H70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8426,8 +8482,9 @@
       <c r="H71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8451,8 +8508,9 @@
       <c r="H72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8476,8 +8534,9 @@
       <c r="H73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8501,8 +8560,9 @@
       <c r="H74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8526,8 +8586,9 @@
       <c r="H75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8551,8 +8612,9 @@
       <c r="H76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8576,8 +8638,9 @@
       <c r="H77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8601,8 +8664,9 @@
       <c r="H78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8626,8 +8690,9 @@
       <c r="H79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8651,8 +8716,9 @@
       <c r="H80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8676,8 +8742,9 @@
       <c r="H81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8701,8 +8768,9 @@
       <c r="H82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8726,8 +8794,9 @@
       <c r="H83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8751,8 +8820,9 @@
       <c r="H84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8776,8 +8846,9 @@
       <c r="H85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8801,8 +8872,9 @@
       <c r="H86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8826,8 +8898,9 @@
       <c r="H87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8851,8 +8924,9 @@
       <c r="H88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8876,8 +8950,9 @@
       <c r="H89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8901,8 +8976,9 @@
       <c r="H90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8926,8 +9002,9 @@
       <c r="H91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8951,8 +9028,9 @@
       <c r="H92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8976,8 +9054,9 @@
       <c r="H93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9001,8 +9080,9 @@
       <c r="H94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9026,8 +9106,9 @@
       <c r="H95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9051,8 +9132,9 @@
       <c r="H96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9076,8 +9158,9 @@
       <c r="H97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9101,8 +9184,9 @@
       <c r="H98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9126,8 +9210,9 @@
       <c r="H99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9151,8 +9236,9 @@
       <c r="H100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9176,8 +9262,9 @@
       <c r="H101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9201,8 +9288,9 @@
       <c r="H102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9226,8 +9314,9 @@
       <c r="H103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9251,8 +9340,9 @@
       <c r="H104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9276,8 +9366,9 @@
       <c r="H105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9301,8 +9392,9 @@
       <c r="H106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L106"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9326,8 +9418,9 @@
       <c r="H107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L107"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9351,8 +9444,9 @@
       <c r="H108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L108"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9376,8 +9470,9 @@
       <c r="H109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L109"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9401,8 +9496,9 @@
       <c r="H110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L110"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9426,8 +9522,9 @@
       <c r="H111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L111"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9451,8 +9548,9 @@
       <c r="H112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9476,8 +9574,9 @@
       <c r="H113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9501,8 +9600,9 @@
       <c r="H114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L114"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9526,8 +9626,9 @@
       <c r="H115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9551,8 +9652,9 @@
       <c r="H116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9576,8 +9678,9 @@
       <c r="H117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9601,8 +9704,9 @@
       <c r="H118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9626,8 +9730,9 @@
       <c r="H119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9651,8 +9756,9 @@
       <c r="H120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9676,8 +9782,9 @@
       <c r="H121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L121"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9701,8 +9808,9 @@
       <c r="H122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L122"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9726,8 +9834,9 @@
       <c r="H123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L123"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9751,8 +9860,9 @@
       <c r="H124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L124"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9776,8 +9886,9 @@
       <c r="H125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L125"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9801,8 +9912,9 @@
       <c r="H126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L126"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9826,8 +9938,9 @@
       <c r="H127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L127"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9851,8 +9964,9 @@
       <c r="H128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9876,8 +9990,9 @@
       <c r="H129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9901,8 +10016,9 @@
       <c r="H130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9926,8 +10042,9 @@
       <c r="H131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9951,8 +10068,9 @@
       <c r="H132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9976,8 +10094,9 @@
       <c r="H133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -10001,8 +10120,9 @@
       <c r="H134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L134"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -10026,8 +10146,9 @@
       <c r="H135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L135"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -10051,8 +10172,9 @@
       <c r="H136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L136"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -10076,8 +10198,9 @@
       <c r="H137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L137"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -10101,8 +10224,9 @@
       <c r="H138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L138"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -10126,8 +10250,9 @@
       <c r="H139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L139"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -10151,8 +10276,9 @@
       <c r="H140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L140"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -10176,8 +10302,9 @@
       <c r="H141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L141"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -10201,8 +10328,9 @@
       <c r="H142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L142"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -10226,8 +10354,9 @@
       <c r="H143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L143"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10251,8 +10380,9 @@
       <c r="H144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L144"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -10276,8 +10406,9 @@
       <c r="H145" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L145"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -10301,8 +10432,9 @@
       <c r="H146" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L146"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -10326,8 +10458,9 @@
       <c r="H147" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L147"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -10351,8 +10484,9 @@
       <c r="H148" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L148"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10376,8 +10510,9 @@
       <c r="H149" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L149"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10401,8 +10536,9 @@
       <c r="H150" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L150"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10426,8 +10562,9 @@
       <c r="H151" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L151"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10451,8 +10588,9 @@
       <c r="H152" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L152"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10476,8 +10614,9 @@
       <c r="H153" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L153"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -10501,8 +10640,9 @@
       <c r="H154" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L154"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -10526,8 +10666,9 @@
       <c r="H155" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L155"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10551,8 +10692,9 @@
       <c r="H156" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L156"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10576,8 +10718,9 @@
       <c r="H157" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L157"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10601,8 +10744,9 @@
       <c r="H158" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L158"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10626,8 +10770,9 @@
       <c r="H159" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L159"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10651,8 +10796,9 @@
       <c r="H160" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L160"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10676,8 +10822,9 @@
       <c r="H161" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L161"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10701,8 +10848,9 @@
       <c r="H162" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L162"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10726,8 +10874,9 @@
       <c r="H163" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L163"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10751,8 +10900,9 @@
       <c r="H164" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L164"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10776,8 +10926,9 @@
       <c r="H165" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L165"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10801,8 +10952,9 @@
       <c r="H166" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L166"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10826,8 +10978,9 @@
       <c r="H167" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L167"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10851,8 +11004,9 @@
       <c r="H168" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L168"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10876,8 +11030,9 @@
       <c r="H169" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L169"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10901,8 +11056,9 @@
       <c r="H170" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L170"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10926,8 +11082,9 @@
       <c r="H171" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L171"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -10951,8 +11108,9 @@
       <c r="H172" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L172"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -10976,8 +11134,9 @@
       <c r="H173" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L173"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -11001,8 +11160,9 @@
       <c r="H174" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L174"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -11026,8 +11186,9 @@
       <c r="H175" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L175"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -11051,8 +11212,9 @@
       <c r="H176" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L176"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -11076,8 +11238,9 @@
       <c r="H177" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L177"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -11101,8 +11264,9 @@
       <c r="H178" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L178"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -11126,8 +11290,9 @@
       <c r="H179" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L179"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -11151,8 +11316,9 @@
       <c r="H180" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L180"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -11176,8 +11342,9 @@
       <c r="H181" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L181"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -11201,8 +11368,9 @@
       <c r="H182" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L182"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -11226,8 +11394,9 @@
       <c r="H183" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L183"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -11251,8 +11420,9 @@
       <c r="H184" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L184"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -11276,8 +11446,9 @@
       <c r="H185" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L185"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -11301,8 +11472,9 @@
       <c r="H186" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L186"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -11326,8 +11498,9 @@
       <c r="H187" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L187"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -11351,8 +11524,9 @@
       <c r="H188" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L188"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -11376,8 +11550,9 @@
       <c r="H189" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L189"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -11401,8 +11576,9 @@
       <c r="H190" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L190"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -11426,8 +11602,9 @@
       <c r="H191" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L191"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -11451,8 +11628,9 @@
       <c r="H192" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L192"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -11476,8 +11654,9 @@
       <c r="H193" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L193"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -11501,8 +11680,9 @@
       <c r="H194" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L194"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -11526,8 +11706,9 @@
       <c r="H195" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L195"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -11551,8 +11732,9 @@
       <c r="H196" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L196"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -11576,8 +11758,9 @@
       <c r="H197" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L197"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -11601,8 +11784,9 @@
       <c r="H198" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L198"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -11626,8 +11810,9 @@
       <c r="H199" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L199"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -11651,8 +11836,9 @@
       <c r="H200" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L200"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -11676,8 +11862,9 @@
       <c r="H201" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L201"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -11701,8 +11888,9 @@
       <c r="H202" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L202"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -11726,8 +11914,9 @@
       <c r="H203" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L203"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -11751,8 +11940,9 @@
       <c r="H204" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L204"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -11776,8 +11966,9 @@
       <c r="H205" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L205"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -11801,8 +11992,9 @@
       <c r="H206" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L206"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -11826,8 +12018,9 @@
       <c r="H207" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L207"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -11851,8 +12044,9 @@
       <c r="H208" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L208"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -11876,8 +12070,9 @@
       <c r="H209" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L209"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -11901,8 +12096,9 @@
       <c r="H210" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L210"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -11926,8 +12122,9 @@
       <c r="H211" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L211"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -11951,8 +12148,9 @@
       <c r="H212" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L212"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -11976,8 +12174,9 @@
       <c r="H213" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L213"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -12001,8 +12200,9 @@
       <c r="H214" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L214"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -12026,8 +12226,9 @@
       <c r="H215" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L215"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -12051,8 +12252,9 @@
       <c r="H216" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L216"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -12076,8 +12278,9 @@
       <c r="H217" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L217"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -12101,8 +12304,9 @@
       <c r="H218" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L218"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -12126,8 +12330,9 @@
       <c r="H219" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L219"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -12151,8 +12356,9 @@
       <c r="H220" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L220"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -12176,8 +12382,9 @@
       <c r="H221" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L221"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -12201,8 +12408,9 @@
       <c r="H222" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L222"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -12226,8 +12434,9 @@
       <c r="H223" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L223"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -12251,8 +12460,9 @@
       <c r="H224" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L224"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -12276,8 +12486,9 @@
       <c r="H225" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L225"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -12301,8 +12512,9 @@
       <c r="H226" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L226"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -12326,8 +12538,9 @@
       <c r="H227" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L227"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -12351,8 +12564,9 @@
       <c r="H228" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L228"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -12376,8 +12590,9 @@
       <c r="H229" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L229"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -12401,8 +12616,9 @@
       <c r="H230" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L230"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -12426,8 +12642,9 @@
       <c r="H231" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L231"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -12451,8 +12668,9 @@
       <c r="H232" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L232"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -12476,8 +12694,9 @@
       <c r="H233" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L233"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -12501,8 +12720,9 @@
       <c r="H234" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L234"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -12526,8 +12746,9 @@
       <c r="H235" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L235"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -12551,8 +12772,9 @@
       <c r="H236" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L236"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -12576,8 +12798,9 @@
       <c r="H237" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L237"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -12601,8 +12824,9 @@
       <c r="H238" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L238"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -12626,8 +12850,9 @@
       <c r="H239" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L239"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -12651,8 +12876,9 @@
       <c r="H240" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L240"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -12676,8 +12902,9 @@
       <c r="H241" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L241"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -12701,8 +12928,9 @@
       <c r="H242" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L242"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -12726,8 +12954,9 @@
       <c r="H243" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L243"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -12751,8 +12980,9 @@
       <c r="H244" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L244"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -12776,8 +13006,9 @@
       <c r="H245" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L245"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -12801,8 +13032,9 @@
       <c r="H246" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L246"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -12826,8 +13058,9 @@
       <c r="H247" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L247"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -12851,8 +13084,9 @@
       <c r="H248" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L248"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -12876,8 +13110,9 @@
       <c r="H249" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L249"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -12901,8 +13136,9 @@
       <c r="H250" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L250"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -12926,8 +13162,9 @@
       <c r="H251" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L251"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -12951,8 +13188,9 @@
       <c r="H252" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L252"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -12976,8 +13214,9 @@
       <c r="H253" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L253"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -13001,8 +13240,9 @@
       <c r="H254" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L254"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -13026,8 +13266,9 @@
       <c r="H255" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L255"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -13051,8 +13292,9 @@
       <c r="H256" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L256"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -13076,8 +13318,9 @@
       <c r="H257" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L257"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -13101,8 +13344,9 @@
       <c r="H258" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L258"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -13126,8 +13370,9 @@
       <c r="H259" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L259"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -13151,8 +13396,9 @@
       <c r="H260" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L260"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -13176,8 +13422,9 @@
       <c r="H261" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L261"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -13201,8 +13448,9 @@
       <c r="H262" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L262"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -13226,8 +13474,9 @@
       <c r="H263" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L263"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -13251,8 +13500,9 @@
       <c r="H264" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L264"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -13276,8 +13526,9 @@
       <c r="H265" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L265"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -13301,8 +13552,9 @@
       <c r="H266" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L266"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -13326,8 +13578,9 @@
       <c r="H267" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L267"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -13351,8 +13604,9 @@
       <c r="H268" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L268"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -13376,8 +13630,9 @@
       <c r="H269" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L269"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -13401,8 +13656,9 @@
       <c r="H270" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L270"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -13426,8 +13682,9 @@
       <c r="H271" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L271"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -13451,8 +13708,9 @@
       <c r="H272" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L272"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -13476,8 +13734,9 @@
       <c r="H273" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L273"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -13501,8 +13760,9 @@
       <c r="H274" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L274"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -13526,8 +13786,9 @@
       <c r="H275" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L275"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -13551,8 +13812,9 @@
       <c r="H276" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L276"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -13576,8 +13838,9 @@
       <c r="H277" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L277"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -13601,8 +13864,9 @@
       <c r="H278" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L278"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -13626,8 +13890,9 @@
       <c r="H279" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L279"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -13651,8 +13916,9 @@
       <c r="H280" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L280"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -13676,8 +13942,9 @@
       <c r="H281" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L281"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -13701,8 +13968,9 @@
       <c r="H282" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L282"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -13726,8 +13994,9 @@
       <c r="H283" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L283"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -13751,8 +14020,9 @@
       <c r="H284" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L284"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -13776,8 +14046,9 @@
       <c r="H285" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L285"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -13801,8 +14072,9 @@
       <c r="H286" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L286"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -13826,6 +14098,7 @@
       <c r="H287" s="1">
         <v>2</v>
       </c>
+      <c r="L287"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
